--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3833.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3833.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.378315589291029</v>
+        <v>4.342636585235596</v>
       </c>
       <c r="B1">
-        <v>2.296939357952687</v>
+        <v>4.472248077392578</v>
       </c>
       <c r="C1">
-        <v>4.994851247288267</v>
+        <v>8.236617088317871</v>
       </c>
       <c r="D1">
-        <v>3.229117402348165</v>
+        <v>8.498508453369141</v>
       </c>
       <c r="E1">
-        <v>0.9716012469720826</v>
+        <v>5.36424446105957</v>
       </c>
     </row>
   </sheetData>
